--- a/exports/semaine_15.xlsx
+++ b/exports/semaine_15.xlsx
@@ -11,36 +11,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t/>
   </si>
   <si>
-    <t>LUNDI 08/04</t>
-  </si>
-  <si>
-    <t>MARDI 09/04</t>
-  </si>
-  <si>
-    <t>MERCREDI 10/04</t>
-  </si>
-  <si>
-    <t>JEUDI 11/04</t>
-  </si>
-  <si>
-    <t>VENDREDI 12/04</t>
+    <t>Lundi 08/04</t>
+  </si>
+  <si>
+    <t>Mardi 09/04</t>
+  </si>
+  <si>
+    <t>Mercredi 10/04</t>
+  </si>
+  <si>
+    <t>Jeudi 11/04</t>
+  </si>
+  <si>
+    <t>Vendredi 12/04</t>
   </si>
   <si>
     <t>Matin</t>
   </si>
   <si>
-    <t>12h ping pong</t>
+    <t>08h physique</t>
   </si>
   <si>
     <t>Après-midi</t>
   </si>
   <si>
-    <t>13h kart</t>
+    <t>13h maths</t>
+  </si>
+  <si>
+    <t>19h reunion équipe</t>
   </si>
 </sst>
 </file>
@@ -423,8 +426,7 @@
   <dimension ref="A1:F3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="6" width="20" customWidth="1"/>
+    <col min="1" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="120" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -452,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -461,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -478,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
